--- a/Votes/November 2025 Votes.xlsx
+++ b/Votes/November 2025 Votes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/Brookline/Nov2025/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/TM/Votes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7C10C-CF69-224F-A4DC-D1C3C0F85243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB30153-2975-334E-837E-33302FE03025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="47480" windowHeight="23160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="309">
   <si>
     <t>Special Town Meeting Night 1, November 18, 2025</t>
   </si>
@@ -957,6 +957,9 @@
   </si>
   <si>
     <t>(unrecorded vote, 2/3 required)</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1604,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T271" sqref="T271"/>
+      <selection pane="bottomRight" activeCell="T272" sqref="T272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17163,7 +17166,7 @@
         <v>278</v>
       </c>
       <c r="T271" s="32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="U271" s="32" t="s">
         <v>278</v>
